--- a/Case Study 2/Significant Table.xlsx
+++ b/Case Study 2/Significant Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbourzik/OneDrive - McAfee/Documents/SMU/6306 - DDS - F18/Case_Final2/SMU-MSDS-Homework/Case Study 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{412EB184-D91C-4642-936A-555E3D07D6D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{14A0DE6E-2872-CA40-82C3-04A995519997}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="8_{412EB184-D91C-4642-936A-555E3D07D6D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{3C2D91E8-7E2D-B248-8BBD-B54204A1AAAA}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{27BABDC8-95E6-4834-B961-269F4E578523}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{27BABDC8-95E6-4834-B961-269F4E578523}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="99">
   <si>
     <t>Attrition</t>
   </si>
@@ -228,13 +228,112 @@
   </si>
   <si>
     <t>Not</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Signficant</t>
+  </si>
+  <si>
+    <t>Not Signficant</t>
+  </si>
+  <si>
+    <t>BusinessTravel Travel Rarely</t>
+  </si>
+  <si>
+    <t>Daily Rate</t>
+  </si>
+  <si>
+    <t>Distance From Home</t>
+  </si>
+  <si>
+    <t>Environment Satisfaction</t>
+  </si>
+  <si>
+    <t>Hourly Rate</t>
+  </si>
+  <si>
+    <t>Job Involvement</t>
+  </si>
+  <si>
+    <t>Job Level</t>
+  </si>
+  <si>
+    <t>Job Satisfaction</t>
+  </si>
+  <si>
+    <t>Monthly Income</t>
+  </si>
+  <si>
+    <t>Number Companies Worked</t>
+  </si>
+  <si>
+    <t>Percent Salary Hike</t>
+  </si>
+  <si>
+    <t>Performance Rating</t>
+  </si>
+  <si>
+    <t>Relationship Satisfaction</t>
+  </si>
+  <si>
+    <t>Total Working Years</t>
+  </si>
+  <si>
+    <t>Training Times Last Year</t>
+  </si>
+  <si>
+    <t>Work Life Balance</t>
+  </si>
+  <si>
+    <t>Years At Company</t>
+  </si>
+  <si>
+    <t>Years In Current Role</t>
+  </si>
+  <si>
+    <t>Years Since Last Promotion</t>
+  </si>
+  <si>
+    <t>Years With Current Manager</t>
+  </si>
+  <si>
+    <t>Attrition - No</t>
+  </si>
+  <si>
+    <t>Business Travel Travel Frequently</t>
+  </si>
+  <si>
+    <t>Gender - Female</t>
+  </si>
+  <si>
+    <t>Marital Status - Married</t>
+  </si>
+  <si>
+    <t>Marital Status - Single</t>
+  </si>
+  <si>
+    <t>Marital Status - Divorced</t>
+  </si>
+  <si>
+    <t>Monthly Rate</t>
+  </si>
+  <si>
+    <t>Over Time - Yes</t>
+  </si>
+  <si>
+    <t>Over Time - No</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,8 +362,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +399,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -353,19 +478,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1545,17 +1674,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D144FB-7718-C641-A3E7-6E41CF8AC8C8}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:AY32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="BA7" sqref="BA7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="47" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="72" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" ht="72" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>50</v>
       </c>
@@ -1589,38 +1722,218 @@
       <c r="K1" s="9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="4"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N2" s="17"/>
+      <c r="O2" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="17"/>
+    </row>
+    <row r="3" spans="1:51" ht="110" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="4"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="V3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="X3" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y3" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z3" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA3" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB3" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC3" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD3" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE3" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG3" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH3" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI3" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ3" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK3" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL3" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM3" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN3" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO3" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP3" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR3" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS3" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT3" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU3" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV3" s="17"/>
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="17"/>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -1634,8 +1947,48 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="18"/>
+      <c r="AQ4" s="18"/>
+      <c r="AR4" s="18"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="18"/>
+      <c r="AU4" s="18"/>
+      <c r="AV4" s="17"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="17"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
@@ -1649,8 +2002,48 @@
       <c r="I5" s="4"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="18"/>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="17"/>
+      <c r="AW5" s="17"/>
+      <c r="AX5" s="17"/>
+      <c r="AY5" s="17"/>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
@@ -1664,8 +2057,48 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="18"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="18"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="17"/>
+      <c r="AW6" s="17"/>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="17"/>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
@@ -1679,8 +2112,48 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="17"/>
+      <c r="AW7" s="17"/>
+      <c r="AX7" s="17"/>
+      <c r="AY7" s="17"/>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
@@ -1694,8 +2167,48 @@
       <c r="I8" s="4"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="18"/>
+      <c r="AO8" s="18"/>
+      <c r="AP8" s="18"/>
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="18"/>
+      <c r="AS8" s="18"/>
+      <c r="AT8" s="18"/>
+      <c r="AU8" s="18"/>
+      <c r="AV8" s="17"/>
+      <c r="AW8" s="17"/>
+      <c r="AX8" s="17"/>
+      <c r="AY8" s="17"/>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>58</v>
       </c>
@@ -1709,8 +2222,48 @@
       <c r="I9" s="4"/>
       <c r="J9" s="3"/>
       <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="18"/>
+      <c r="AP9" s="18"/>
+      <c r="AQ9" s="18"/>
+      <c r="AR9" s="18"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="18"/>
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="17"/>
+      <c r="AW9" s="17"/>
+      <c r="AX9" s="17"/>
+      <c r="AY9" s="17"/>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -1724,8 +2277,48 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="18"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="18"/>
+      <c r="AT10" s="18"/>
+      <c r="AU10" s="18"/>
+      <c r="AV10" s="17"/>
+      <c r="AW10" s="17"/>
+      <c r="AX10" s="17"/>
+      <c r="AY10" s="17"/>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
@@ -1739,8 +2332,48 @@
       <c r="I11" s="4"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="18"/>
+      <c r="AM11" s="18"/>
+      <c r="AN11" s="18"/>
+      <c r="AO11" s="18"/>
+      <c r="AP11" s="18"/>
+      <c r="AQ11" s="18"/>
+      <c r="AR11" s="18"/>
+      <c r="AS11" s="18"/>
+      <c r="AT11" s="18"/>
+      <c r="AU11" s="18"/>
+      <c r="AV11" s="17"/>
+      <c r="AW11" s="17"/>
+      <c r="AX11" s="17"/>
+      <c r="AY11" s="17"/>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
@@ -1754,8 +2387,48 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="18"/>
+      <c r="AP12" s="18"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="18"/>
+      <c r="AU12" s="18"/>
+      <c r="AV12" s="17"/>
+      <c r="AW12" s="17"/>
+      <c r="AX12" s="17"/>
+      <c r="AY12" s="17"/>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>30</v>
       </c>
@@ -1769,8 +2442,46 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17"/>
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="17"/>
+      <c r="AO13" s="17"/>
+      <c r="AP13" s="17"/>
+      <c r="AQ13" s="17"/>
+      <c r="AR13" s="17"/>
+      <c r="AS13" s="17"/>
+      <c r="AT13" s="17"/>
+      <c r="AU13" s="17"/>
+      <c r="AV13" s="17"/>
+      <c r="AW13" s="17"/>
+      <c r="AX13" s="17"/>
+      <c r="AY13" s="17"/>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>31</v>
       </c>
@@ -1784,8 +2495,48 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="17"/>
+      <c r="AM14" s="17"/>
+      <c r="AN14" s="17"/>
+      <c r="AO14" s="17"/>
+      <c r="AP14" s="17"/>
+      <c r="AQ14" s="17"/>
+      <c r="AR14" s="17"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU14" s="17"/>
+      <c r="AV14" s="17"/>
+      <c r="AW14" s="17"/>
+      <c r="AX14" s="17"/>
+      <c r="AY14" s="17"/>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>32</v>
       </c>
@@ -1799,8 +2550,48 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="17"/>
+      <c r="AM15" s="17"/>
+      <c r="AN15" s="17"/>
+      <c r="AO15" s="17"/>
+      <c r="AP15" s="17"/>
+      <c r="AQ15" s="17"/>
+      <c r="AR15" s="17"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU15" s="17"/>
+      <c r="AV15" s="17"/>
+      <c r="AW15" s="17"/>
+      <c r="AX15" s="17"/>
+      <c r="AY15" s="17"/>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>62</v>
       </c>
@@ -1814,8 +2605,46 @@
       <c r="I16" s="4"/>
       <c r="J16" s="3"/>
       <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17"/>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="17"/>
+      <c r="AO16" s="17"/>
+      <c r="AP16" s="17"/>
+      <c r="AQ16" s="17"/>
+      <c r="AR16" s="17"/>
+      <c r="AS16" s="17"/>
+      <c r="AT16" s="17"/>
+      <c r="AU16" s="17"/>
+      <c r="AV16" s="17"/>
+      <c r="AW16" s="17"/>
+      <c r="AX16" s="17"/>
+      <c r="AY16" s="17"/>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>33</v>
       </c>
@@ -1829,8 +2658,46 @@
       <c r="I17" s="4"/>
       <c r="J17" s="3"/>
       <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="17"/>
+      <c r="AL17" s="17"/>
+      <c r="AM17" s="17"/>
+      <c r="AN17" s="17"/>
+      <c r="AO17" s="17"/>
+      <c r="AP17" s="17"/>
+      <c r="AQ17" s="17"/>
+      <c r="AR17" s="17"/>
+      <c r="AS17" s="17"/>
+      <c r="AT17" s="17"/>
+      <c r="AU17" s="17"/>
+      <c r="AV17" s="17"/>
+      <c r="AW17" s="17"/>
+      <c r="AX17" s="17"/>
+      <c r="AY17" s="17"/>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>34</v>
       </c>
@@ -1844,8 +2711,46 @@
       <c r="I18" s="4"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="17"/>
+      <c r="AM18" s="17"/>
+      <c r="AN18" s="17"/>
+      <c r="AO18" s="17"/>
+      <c r="AP18" s="17"/>
+      <c r="AQ18" s="17"/>
+      <c r="AR18" s="17"/>
+      <c r="AS18" s="17"/>
+      <c r="AT18" s="17"/>
+      <c r="AU18" s="17"/>
+      <c r="AV18" s="17"/>
+      <c r="AW18" s="17"/>
+      <c r="AX18" s="17"/>
+      <c r="AY18" s="17"/>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>35</v>
       </c>
@@ -1860,7 +2765,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>37</v>
       </c>
@@ -1875,7 +2780,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>38</v>
       </c>
@@ -1890,7 +2795,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>39</v>
       </c>
@@ -1905,7 +2810,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>40</v>
       </c>
@@ -1920,7 +2825,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>43</v>
       </c>
@@ -1935,7 +2840,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>44</v>
       </c>
@@ -1950,7 +2855,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>45</v>
       </c>
@@ -1965,7 +2870,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>46</v>
       </c>
@@ -1980,7 +2885,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>47</v>
       </c>
@@ -1995,7 +2900,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>48</v>
       </c>
@@ -2010,7 +2915,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>49</v>
       </c>
@@ -2025,7 +2930,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>55</v>
       </c>
@@ -2040,7 +2945,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>56</v>
       </c>
@@ -2065,7 +2970,7 @@
   <dimension ref="A1:A54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2079,9 +2984,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="7"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -2346,7 +3249,7 @@
   </sheetData>
   <autoFilter ref="A1:A54" xr:uid="{C62C3C9C-1D0A-8B4F-8ED3-5D1D7EF5C089}">
     <sortState ref="A2:A54">
-      <sortCondition sortBy="cellColor" ref="A1:A54" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="A1:A54" dxfId="0"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Case Study 2/Significant Table.xlsx
+++ b/Case Study 2/Significant Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbourzik/OneDrive - McAfee/Documents/SMU/6306 - DDS - F18/Case_Final2/SMU-MSDS-Homework/Case Study 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcafee-my.sharepoint.com/personal/grant_bourzikas_mcafee_com/Documents/Documents/SMU/6306 - DDS - F18/Case_Final2/SMU-MSDS-Homework/Case Study 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="8_{412EB184-D91C-4642-936A-555E3D07D6D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{3C2D91E8-7E2D-B248-8BBD-B54204A1AAAA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{CA3B5123-ED1E-5440-8546-D5D82B1A5E4E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{27BABDC8-95E6-4834-B961-269F4E578523}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{27BABDC8-95E6-4834-B961-269F4E578523}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="103">
   <si>
     <t>Attrition</t>
   </si>
@@ -230,110 +230,126 @@
     <t>Not</t>
   </si>
   <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Signficant</t>
-  </si>
-  <si>
-    <t>Not Signficant</t>
-  </si>
-  <si>
-    <t>BusinessTravel Travel Rarely</t>
-  </si>
-  <si>
-    <t>Daily Rate</t>
-  </si>
-  <si>
-    <t>Distance From Home</t>
-  </si>
-  <si>
-    <t>Environment Satisfaction</t>
-  </si>
-  <si>
-    <t>Hourly Rate</t>
-  </si>
-  <si>
-    <t>Job Involvement</t>
-  </si>
-  <si>
-    <t>Job Level</t>
-  </si>
-  <si>
-    <t>Job Satisfaction</t>
-  </si>
-  <si>
-    <t>Monthly Income</t>
-  </si>
-  <si>
-    <t>Number Companies Worked</t>
-  </si>
-  <si>
-    <t>Percent Salary Hike</t>
-  </si>
-  <si>
-    <t>Performance Rating</t>
-  </si>
-  <si>
-    <t>Relationship Satisfaction</t>
-  </si>
-  <si>
-    <t>Total Working Years</t>
-  </si>
-  <si>
-    <t>Training Times Last Year</t>
-  </si>
-  <si>
-    <t>Work Life Balance</t>
-  </si>
-  <si>
-    <t>Years At Company</t>
-  </si>
-  <si>
-    <t>Years In Current Role</t>
-  </si>
-  <si>
-    <t>Years Since Last Promotion</t>
-  </si>
-  <si>
-    <t>Years With Current Manager</t>
-  </si>
-  <si>
-    <t>Attrition - No</t>
-  </si>
-  <si>
-    <t>Business Travel Travel Frequently</t>
-  </si>
-  <si>
-    <t>Gender - Female</t>
-  </si>
-  <si>
-    <t>Marital Status - Married</t>
-  </si>
-  <si>
-    <t>Marital Status - Single</t>
-  </si>
-  <si>
-    <t>Marital Status - Divorced</t>
-  </si>
-  <si>
-    <t>Monthly Rate</t>
-  </si>
-  <si>
-    <t>Over Time - Yes</t>
-  </si>
-  <si>
-    <t>Over Time - No</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>Human Resources </t>
+  </si>
+  <si>
+    <t>Manufacturing Director </t>
+  </si>
+  <si>
+    <t>Research Scientist </t>
+  </si>
+  <si>
+    <t>Laboratory Technician </t>
+  </si>
+  <si>
+    <t>Research Director </t>
+  </si>
+  <si>
+    <t>Manager </t>
+  </si>
+  <si>
+    <t>Age </t>
+  </si>
+  <si>
+    <t>DailyRate </t>
+  </si>
+  <si>
+    <t>DistanceFromHome </t>
+  </si>
+  <si>
+    <t>Education </t>
+  </si>
+  <si>
+    <t>EnvironmentSatisfaction </t>
+  </si>
+  <si>
+    <t>HourlyRate </t>
+  </si>
+  <si>
+    <t>JobInvolvement </t>
+  </si>
+  <si>
+    <t>JobSatisfaction </t>
+  </si>
+  <si>
+    <t>MonthlyIncome </t>
+  </si>
+  <si>
+    <t>MonthlyRate </t>
+  </si>
+  <si>
+    <t>NumCompaniesWorked </t>
+  </si>
+  <si>
+    <t>PercentSalaryHike </t>
+  </si>
+  <si>
+    <t>PerformanceRating </t>
+  </si>
+  <si>
+    <t>RelationshipSatisfaction </t>
+  </si>
+  <si>
+    <t>StockOptionLevel </t>
+  </si>
+  <si>
+    <t>TotalWorkingYears </t>
+  </si>
+  <si>
+    <t>TrainingTimesLastYear </t>
+  </si>
+  <si>
+    <t>WorkLifeBalance </t>
+  </si>
+  <si>
+    <t>YearsAtCompany </t>
+  </si>
+  <si>
+    <t>YearsInCurrentRole </t>
+  </si>
+  <si>
+    <t>YearsSinceLastPromotion </t>
+  </si>
+  <si>
+    <t>YearsWithCurrManager </t>
+  </si>
+  <si>
+    <t>BusinessTravel_Travel_Rarely </t>
+  </si>
+  <si>
+    <t>BusinessTravel_Travel_Frequently </t>
+  </si>
+  <si>
+    <t>Gender_Female </t>
+  </si>
+  <si>
+    <t>MaritalStatus_Married </t>
+  </si>
+  <si>
+    <t>MaritalStatus_Divorced </t>
+  </si>
+  <si>
+    <t>OverTime_No </t>
+  </si>
+  <si>
+    <t>Sales Representative </t>
+  </si>
+  <si>
+    <t>Healthcare Representative </t>
+  </si>
+  <si>
+    <t>JOB ROLE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,22 +372,33 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color rgb="FF777777"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="13"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Open Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,19 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,10 +460,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -469,37 +485,687 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="45"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="36">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF777777"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -514,6 +1180,43 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9DC72B7B-CAF4-1649-BA94-04FA6E10BA91}" name="Table2" displayName="Table2" ref="B4:AD12" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" dataCellStyle="Comma">
+  <tableColumns count="29">
+    <tableColumn id="1" xr3:uid="{D6933069-1E98-434C-A7E4-0000D14B6D11}" name="JOB ROLE" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{31D96242-D9D1-594E-841D-8DAB2CCC016B}" name="Age " dataDxfId="28" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{0C5436D4-2DBD-ED41-AEF7-B342E0203901}" name="DailyRate " dataDxfId="27" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{18B31757-77D9-3947-91EE-F0379B2842B3}" name="DistanceFromHome " dataDxfId="26" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{A47BE291-24BA-BE48-8E24-227A865BB874}" name="Education " dataDxfId="25" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{33DB86DD-708C-1942-8B1A-138F3DBD0165}" name="EnvironmentSatisfaction " dataDxfId="24" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{D16AB8E5-B343-4044-B313-1ABBF8DEFD57}" name="HourlyRate " dataDxfId="23" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{4D9A61F8-470D-744D-A169-B2C681A97C94}" name="JobInvolvement " dataDxfId="22" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{AFCF10B8-4CC0-BF45-855F-39DA6CE2D27D}" name="JobSatisfaction " dataDxfId="21" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{E7EA4F30-0769-4B4D-92C3-E32F2AA66E6E}" name="MonthlyIncome " dataDxfId="20" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{B04C4A88-3EA0-0341-A680-1CAFAF51AC7B}" name="MonthlyRate " dataDxfId="19" dataCellStyle="Comma"/>
+    <tableColumn id="12" xr3:uid="{20826622-65B3-1A42-9360-3F934029C186}" name="NumCompaniesWorked " dataDxfId="18" dataCellStyle="Comma"/>
+    <tableColumn id="13" xr3:uid="{420D1892-24C1-F94C-89B9-E0F7E0C2A796}" name="PercentSalaryHike " dataDxfId="17" dataCellStyle="Comma"/>
+    <tableColumn id="14" xr3:uid="{9BF901CA-75EF-8542-A467-18C278F34CAA}" name="PerformanceRating " dataDxfId="16" dataCellStyle="Comma"/>
+    <tableColumn id="15" xr3:uid="{6D305398-587B-FC4F-8FE8-2A339B9F76D7}" name="RelationshipSatisfaction " dataDxfId="15" dataCellStyle="Comma"/>
+    <tableColumn id="16" xr3:uid="{33FDC3D4-62B9-3545-81B4-57E6C0E23B55}" name="StockOptionLevel " dataDxfId="14" dataCellStyle="Comma"/>
+    <tableColumn id="17" xr3:uid="{FD98D3E0-78BE-E946-8D57-2CF4C877824E}" name="TotalWorkingYears " dataDxfId="13" dataCellStyle="Comma"/>
+    <tableColumn id="18" xr3:uid="{94F94E4A-9309-8E4E-BDA0-1336361ABD47}" name="TrainingTimesLastYear " dataDxfId="12" dataCellStyle="Comma"/>
+    <tableColumn id="19" xr3:uid="{3611317F-7EBD-0645-A617-838C3BA0C43C}" name="WorkLifeBalance " dataDxfId="11" dataCellStyle="Comma"/>
+    <tableColumn id="20" xr3:uid="{F6D52044-59FA-FD4D-AFA6-E41C0A88B0DF}" name="YearsAtCompany " dataDxfId="10" dataCellStyle="Comma"/>
+    <tableColumn id="21" xr3:uid="{E4FDD280-3D9A-174B-A05F-F4B911C7756C}" name="YearsInCurrentRole " dataDxfId="9" dataCellStyle="Comma"/>
+    <tableColumn id="22" xr3:uid="{6AD45E68-E718-4D46-B82A-BFC530D4AB49}" name="YearsSinceLastPromotion " dataDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="23" xr3:uid="{71CBC4B3-2165-7648-B354-6F51B971918E}" name="YearsWithCurrManager " dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="24" xr3:uid="{3834D79E-4246-294E-9105-CD668EA1FA58}" name="BusinessTravel_Travel_Rarely " dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="25" xr3:uid="{004C5163-6FEC-C742-A9A7-3F401B38633F}" name="BusinessTravel_Travel_Frequently " dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="26" xr3:uid="{9B9AFE17-7B77-634C-8F83-D33449E5AD05}" name="Gender_Female " dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="27" xr3:uid="{5F37C5EE-17F7-B44E-96BB-D538259929CD}" name="MaritalStatus_Married " dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="28" xr3:uid="{A24800CD-C893-9748-95B0-EC38D33243EA}" name="MaritalStatus_Divorced " dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="29" xr3:uid="{A0492D2F-80F8-F94B-8C61-8B154C027B06}" name="OverTime_No " dataDxfId="1" dataCellStyle="Comma"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -816,7 +1519,7 @@
   <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="K1" sqref="C1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1674,1294 +2377,1256 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D144FB-7718-C641-A3E7-6E41CF8AC8C8}">
-  <dimension ref="A1:AY32"/>
+  <dimension ref="A1:AW20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="BA7" sqref="BA7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="47" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="12"/>
+    <col min="2" max="2" width="31.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="30" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="72" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17" t="s">
+    <row r="1" spans="2:49" ht="20" x14ac:dyDescent="0.3">
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13"/>
+    </row>
+    <row r="2" spans="2:49" ht="20" x14ac:dyDescent="0.3">
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="13"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="13"/>
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="13"/>
+    </row>
+    <row r="3" spans="2:49" s="12" customFormat="1" ht="20" x14ac:dyDescent="0.3">
+      <c r="B3" s="11"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
+    </row>
+    <row r="4" spans="2:49" ht="215" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z4" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA4" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB4" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC4" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="17"/>
-      <c r="AT2" s="17"/>
-      <c r="AU2" s="17"/>
-      <c r="AV2" s="17"/>
-      <c r="AW2" s="17"/>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="17"/>
-    </row>
-    <row r="3" spans="1:51" ht="110" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="19" t="s">
+      <c r="AD4" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+    </row>
+    <row r="5" spans="2:49" ht="20" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="S3" s="20" t="s">
+      <c r="C5" s="16">
+        <v>0.56232870000000001</v>
+      </c>
+      <c r="D5" s="16">
+        <v>5.6613999999999998E-2</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.89722049999999998</v>
+      </c>
+      <c r="F5" s="16">
+        <v>7.3892000000000003E-3</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.20270869999999999</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0.37407119999999999</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0.70703669999999996</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0.1048157</v>
+      </c>
+      <c r="K5" s="16">
+        <v>2.2482200000000001E-2</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0.54272279999999995</v>
+      </c>
+      <c r="M5" s="16">
+        <v>2.0389299999999999E-2</v>
+      </c>
+      <c r="N5" s="16">
+        <v>1.43982E-2</v>
+      </c>
+      <c r="O5" s="16">
+        <v>6.4862100000000006E-2</v>
+      </c>
+      <c r="P5" s="16">
+        <v>8.6899999999999998E-5</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>0.1236563</v>
+      </c>
+      <c r="R5" s="16">
+        <v>0.62114279999999999</v>
+      </c>
+      <c r="S5" s="16">
+        <v>8.0869399999999994E-2</v>
+      </c>
+      <c r="T5" s="16">
+        <v>6.4533300000000002E-2</v>
+      </c>
+      <c r="U5" s="16">
+        <v>0.54499549999999997</v>
+      </c>
+      <c r="V5" s="16">
+        <v>9.0114799999999995E-2</v>
+      </c>
+      <c r="W5" s="16">
+        <v>0.21963579999999999</v>
+      </c>
+      <c r="X5" s="16">
+        <v>0.95647910000000003</v>
+      </c>
+      <c r="Y5" s="16">
+        <v>0.49882969999999999</v>
+      </c>
+      <c r="Z5" s="16">
+        <v>2.9188499999999999E-2</v>
+      </c>
+      <c r="AA5" s="16">
+        <v>0.296985</v>
+      </c>
+      <c r="AB5" s="16">
+        <v>0.98736480000000004</v>
+      </c>
+      <c r="AC5" s="16">
+        <v>0.98794890000000002</v>
+      </c>
+      <c r="AD5" s="16">
+        <v>3.4983000000000002E-3</v>
+      </c>
+      <c r="AE5" s="12"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+    </row>
+    <row r="6" spans="2:49" ht="20" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1.1058000000000001E-3</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.1108373</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.94933849999999997</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.28102890000000003</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.31231120000000001</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0.9479455</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0.16186130000000001</v>
+      </c>
+      <c r="J6" s="16">
+        <v>7.7675300000000003E-2</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0.2626945</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0.48942829999999998</v>
+      </c>
+      <c r="M6" s="16">
+        <v>0.7453919</v>
+      </c>
+      <c r="N6" s="16">
+        <v>6.8209099999999995E-2</v>
+      </c>
+      <c r="O6" s="16">
+        <v>0.72891519999999999</v>
+      </c>
+      <c r="P6" s="16">
+        <v>0.57960370000000005</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>0.89922299999999999</v>
+      </c>
+      <c r="R6" s="16">
+        <v>0.8135194</v>
+      </c>
+      <c r="S6" s="16">
+        <v>0.63237650000000001</v>
+      </c>
+      <c r="T6" s="16">
+        <v>0.55047610000000002</v>
+      </c>
+      <c r="U6" s="16">
+        <v>0.31391140000000001</v>
+      </c>
+      <c r="V6" s="16">
+        <v>0.1030673</v>
+      </c>
+      <c r="W6" s="16">
+        <v>0.39149669999999998</v>
+      </c>
+      <c r="X6" s="16">
+        <v>0.68977270000000002</v>
+      </c>
+      <c r="Y6" s="16">
+        <v>0.1195384</v>
+      </c>
+      <c r="Z6" s="16">
+        <v>0.47968070000000002</v>
+      </c>
+      <c r="AA6" s="16">
+        <v>0.1212829</v>
+      </c>
+      <c r="AB6" s="16">
+        <v>0.21437619999999999</v>
+      </c>
+      <c r="AC6" s="16">
+        <v>0.82117640000000003</v>
+      </c>
+      <c r="AD6" s="16">
+        <v>0.37455539999999998</v>
+      </c>
+      <c r="AE6" s="12"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+    </row>
+    <row r="7" spans="2:49" ht="20" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.1447794</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.40819949999999999</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.22160750000000001</v>
+      </c>
+      <c r="F7" s="16">
+        <v>9.4050000000000004E-4</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1.4153300000000001E-2</v>
+      </c>
+      <c r="H7" s="16">
+        <v>1.2147700000000001E-2</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0.31833840000000002</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0.32542959999999999</v>
+      </c>
+      <c r="K7" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0.17687130000000001</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0.14401890000000001</v>
+      </c>
+      <c r="N7" s="16">
+        <v>0.32786900000000002</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0.90497550000000004</v>
+      </c>
+      <c r="P7" s="16">
+        <v>0.80650679999999997</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>0.27601170000000003</v>
+      </c>
+      <c r="R7" s="16">
+        <v>0.33652690000000002</v>
+      </c>
+      <c r="S7" s="16">
+        <v>0.19395219999999999</v>
+      </c>
+      <c r="T7" s="16">
+        <v>0.395065</v>
+      </c>
+      <c r="U7" s="16">
+        <v>6.4855999999999997E-2</v>
+      </c>
+      <c r="V7" s="16">
+        <v>4.9832599999999998E-2</v>
+      </c>
+      <c r="W7" s="16">
+        <v>0.96538559999999995</v>
+      </c>
+      <c r="X7" s="16">
+        <v>2.3560899999999999E-2</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>9.5627999999999998E-3</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>0.3334086</v>
+      </c>
+      <c r="AA7" s="16">
+        <v>5.2995399999999998E-2</v>
+      </c>
+      <c r="AB7" s="16">
+        <v>0.13682059999999999</v>
+      </c>
+      <c r="AC7" s="16">
+        <v>0.4981004</v>
+      </c>
+      <c r="AD7" s="16">
+        <v>0.51647759999999998</v>
+      </c>
+      <c r="AE7" s="12"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
+    </row>
+    <row r="8" spans="2:49" ht="20" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="C8" s="16">
+        <v>9.6764600000000006E-2</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.23711879999999999</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.58604990000000001</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0.86144100000000001</v>
+      </c>
+      <c r="G8" s="16">
+        <v>4.3965000000000002E-3</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0.36866769999999999</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0.74015759999999997</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0.54017250000000006</v>
+      </c>
+      <c r="K8" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0.70617770000000002</v>
+      </c>
+      <c r="M8" s="16">
+        <v>0.1403865</v>
+      </c>
+      <c r="N8" s="16">
+        <v>6.32794E-2</v>
+      </c>
+      <c r="O8" s="16">
+        <v>1.5496599999999999E-2</v>
+      </c>
+      <c r="P8" s="16">
+        <v>5.2451600000000001E-2</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>0.78111830000000004</v>
+      </c>
+      <c r="R8" s="16">
+        <v>0.54386279999999998</v>
+      </c>
+      <c r="S8" s="16">
+        <v>0.188416</v>
+      </c>
+      <c r="T8" s="16">
+        <v>0.60043069999999998</v>
+      </c>
+      <c r="U8" s="16">
+        <v>0.74277660000000001</v>
+      </c>
+      <c r="V8" s="16">
+        <v>0.72876649999999998</v>
+      </c>
+      <c r="W8" s="16">
+        <v>0.3582245</v>
+      </c>
+      <c r="X8" s="16">
+        <v>0.38436700000000001</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>5.6834700000000002E-2</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>0.94892620000000005</v>
+      </c>
+      <c r="AA8" s="16">
+        <v>3.6850000000000001E-4</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>0.31133319999999998</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>0.77113469999999995</v>
+      </c>
+      <c r="AD8" s="16">
+        <v>0.33191500000000002</v>
+      </c>
+      <c r="AE8" s="12"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+    </row>
+    <row r="9" spans="2:49" ht="20" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="C9" s="16">
+        <v>0.99804320000000002</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.99684569999999995</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.99948250000000005</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.98998189999999997</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0.99156960000000005</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0.99472819999999995</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0.99655609999999994</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0.99895889999999998</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0.98454609999999998</v>
+      </c>
+      <c r="L9" s="16">
+        <v>0.99254350000000002</v>
+      </c>
+      <c r="M9" s="16">
+        <v>0.9938553</v>
+      </c>
+      <c r="N9" s="16">
+        <v>0.9957684</v>
+      </c>
+      <c r="O9" s="16">
+        <v>0.99568789999999996</v>
+      </c>
+      <c r="P9" s="16">
+        <v>0.98853380000000002</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>0.99817</v>
+      </c>
+      <c r="R9" s="16">
+        <v>0.99842319999999996</v>
+      </c>
+      <c r="S9" s="16">
+        <v>0.99373840000000002</v>
+      </c>
+      <c r="T9" s="16">
+        <v>0.99869759999999996</v>
+      </c>
+      <c r="U9" s="16">
+        <v>0.99464819999999998</v>
+      </c>
+      <c r="V9" s="16">
+        <v>0.99744370000000004</v>
+      </c>
+      <c r="W9" s="16">
+        <v>0.99853250000000005</v>
+      </c>
+      <c r="X9" s="16">
+        <v>0.99567439999999996</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>0.99913859999999999</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>0.9974423</v>
+      </c>
+      <c r="AA9" s="16">
+        <v>0.99349739999999997</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>0.99882530000000003</v>
+      </c>
+      <c r="AC9" s="16">
+        <v>0.99914210000000003</v>
+      </c>
+      <c r="AD9" s="16">
+        <v>0.99253199999999997</v>
+      </c>
+      <c r="AE9" s="12"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
+    </row>
+    <row r="10" spans="2:49" ht="20" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="16">
+        <v>9.4032999999999999E-3</v>
+      </c>
+      <c r="D10" s="16">
+        <v>2.3147999999999998E-2</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.38099260000000001</v>
+      </c>
+      <c r="F10" s="16">
+        <v>2.1793699999999999E-2</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1.51083E-2</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0.1464365</v>
+      </c>
+      <c r="I10" s="16">
+        <v>4.4573599999999998E-2</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0.6241949</v>
+      </c>
+      <c r="K10" s="16">
+        <v>5.3001000000000003E-3</v>
+      </c>
+      <c r="L10" s="16">
+        <v>1.14772E-2</v>
+      </c>
+      <c r="M10" s="16">
+        <v>0.1265577</v>
+      </c>
+      <c r="N10" s="16">
+        <v>4.4906E-3</v>
+      </c>
+      <c r="O10" s="16">
+        <v>1.13112E-2</v>
+      </c>
+      <c r="P10" s="16">
+        <v>0.69675520000000002</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>0.19075420000000001</v>
+      </c>
+      <c r="R10" s="16">
+        <v>5.5704200000000002E-2</v>
+      </c>
+      <c r="S10" s="16">
+        <v>3.0001699999999999E-2</v>
+      </c>
+      <c r="T10" s="16">
+        <v>5.8028400000000001E-2</v>
+      </c>
+      <c r="U10" s="16">
+        <v>8.9643E-2</v>
+      </c>
+      <c r="V10" s="16">
+        <v>2.3647999999999999E-2</v>
+      </c>
+      <c r="W10" s="16">
+        <v>4.3488600000000002E-2</v>
+      </c>
+      <c r="X10" s="16">
+        <v>5.8534299999999997E-2</v>
+      </c>
+      <c r="Y10" s="16">
+        <v>0.17647660000000001</v>
+      </c>
+      <c r="Z10" s="16">
+        <v>6.5019599999999997E-2</v>
+      </c>
+      <c r="AA10" s="16">
+        <v>8.7711000000000004E-3</v>
+      </c>
+      <c r="AB10" s="16">
+        <v>0.66906810000000005</v>
+      </c>
+      <c r="AC10" s="16">
+        <v>3.8164900000000002E-2</v>
+      </c>
+      <c r="AD10" s="16">
+        <v>0.42870360000000002</v>
+      </c>
+      <c r="AE10" s="12"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+    </row>
+    <row r="11" spans="2:49" ht="20" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="W3" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="X3" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y3" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z3" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA3" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB3" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC3" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD3" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE3" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG3" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH3" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI3" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ3" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK3" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL3" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM3" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN3" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO3" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP3" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ3" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR3" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS3" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT3" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="AU3" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV3" s="17"/>
-      <c r="AW3" s="17"/>
-      <c r="AX3" s="17"/>
-      <c r="AY3" s="17"/>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="18"/>
-      <c r="AN4" s="18"/>
-      <c r="AO4" s="18"/>
-      <c r="AP4" s="18"/>
-      <c r="AQ4" s="18"/>
-      <c r="AR4" s="18"/>
-      <c r="AS4" s="18"/>
-      <c r="AT4" s="18"/>
-      <c r="AU4" s="18"/>
-      <c r="AV4" s="17"/>
-      <c r="AW4" s="17"/>
-      <c r="AX4" s="17"/>
-      <c r="AY4" s="17"/>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="18"/>
-      <c r="AN5" s="18"/>
-      <c r="AO5" s="18"/>
-      <c r="AP5" s="18"/>
-      <c r="AQ5" s="18"/>
-      <c r="AR5" s="18"/>
-      <c r="AS5" s="18"/>
-      <c r="AT5" s="18"/>
-      <c r="AU5" s="18"/>
-      <c r="AV5" s="17"/>
-      <c r="AW5" s="17"/>
-      <c r="AX5" s="17"/>
-      <c r="AY5" s="17"/>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="18"/>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="18"/>
-      <c r="AM6" s="18"/>
-      <c r="AN6" s="18"/>
-      <c r="AO6" s="18"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="18"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="17"/>
-      <c r="AW6" s="17"/>
-      <c r="AX6" s="17"/>
-      <c r="AY6" s="17"/>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="18"/>
-      <c r="AN7" s="18"/>
-      <c r="AO7" s="18"/>
-      <c r="AP7" s="18"/>
-      <c r="AQ7" s="18"/>
-      <c r="AR7" s="18"/>
-      <c r="AS7" s="18"/>
-      <c r="AT7" s="18"/>
-      <c r="AU7" s="18"/>
-      <c r="AV7" s="17"/>
-      <c r="AW7" s="17"/>
-      <c r="AX7" s="17"/>
-      <c r="AY7" s="17"/>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="18"/>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="18"/>
-      <c r="AJ8" s="18"/>
-      <c r="AK8" s="18"/>
-      <c r="AL8" s="18"/>
-      <c r="AM8" s="18"/>
-      <c r="AN8" s="18"/>
-      <c r="AO8" s="18"/>
-      <c r="AP8" s="18"/>
-      <c r="AQ8" s="18"/>
-      <c r="AR8" s="18"/>
-      <c r="AS8" s="18"/>
-      <c r="AT8" s="18"/>
-      <c r="AU8" s="18"/>
-      <c r="AV8" s="17"/>
-      <c r="AW8" s="17"/>
-      <c r="AX8" s="17"/>
-      <c r="AY8" s="17"/>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="4"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
-      <c r="AJ9" s="18"/>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="18"/>
-      <c r="AO9" s="18"/>
-      <c r="AP9" s="18"/>
-      <c r="AQ9" s="18"/>
-      <c r="AR9" s="18"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="18"/>
-      <c r="AU9" s="18"/>
-      <c r="AV9" s="17"/>
-      <c r="AW9" s="17"/>
-      <c r="AX9" s="17"/>
-      <c r="AY9" s="17"/>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="4"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="18"/>
-      <c r="AI10" s="18"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="18"/>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="4"/>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="18"/>
-      <c r="AQ10" s="4"/>
-      <c r="AR10" s="4"/>
-      <c r="AS10" s="18"/>
-      <c r="AT10" s="18"/>
-      <c r="AU10" s="18"/>
-      <c r="AV10" s="17"/>
-      <c r="AW10" s="17"/>
-      <c r="AX10" s="17"/>
-      <c r="AY10" s="17"/>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="18"/>
-      <c r="AH11" s="18"/>
-      <c r="AI11" s="18"/>
-      <c r="AJ11" s="18"/>
-      <c r="AK11" s="18"/>
-      <c r="AL11" s="18"/>
-      <c r="AM11" s="18"/>
-      <c r="AN11" s="18"/>
-      <c r="AO11" s="18"/>
-      <c r="AP11" s="18"/>
-      <c r="AQ11" s="18"/>
-      <c r="AR11" s="18"/>
-      <c r="AS11" s="18"/>
-      <c r="AT11" s="18"/>
-      <c r="AU11" s="18"/>
-      <c r="AV11" s="17"/>
-      <c r="AW11" s="17"/>
-      <c r="AX11" s="17"/>
-      <c r="AY11" s="17"/>
-    </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
-      <c r="AJ12" s="18"/>
-      <c r="AK12" s="18"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="18"/>
-      <c r="AO12" s="18"/>
-      <c r="AP12" s="18"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="18"/>
-      <c r="AU12" s="18"/>
-      <c r="AV12" s="17"/>
-      <c r="AW12" s="17"/>
-      <c r="AX12" s="17"/>
-      <c r="AY12" s="17"/>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17"/>
-      <c r="AT13" s="17"/>
-      <c r="AU13" s="17"/>
-      <c r="AV13" s="17"/>
-      <c r="AW13" s="17"/>
-      <c r="AX13" s="17"/>
-      <c r="AY13" s="17"/>
-    </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="4"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="17"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="17"/>
-      <c r="AN14" s="17"/>
-      <c r="AO14" s="17"/>
-      <c r="AP14" s="17"/>
-      <c r="AQ14" s="17"/>
-      <c r="AR14" s="17"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU14" s="17"/>
-      <c r="AV14" s="17"/>
-      <c r="AW14" s="17"/>
-      <c r="AX14" s="17"/>
-      <c r="AY14" s="17"/>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="17"/>
-      <c r="AL15" s="17"/>
-      <c r="AM15" s="17"/>
-      <c r="AN15" s="17"/>
-      <c r="AO15" s="17"/>
-      <c r="AP15" s="17"/>
-      <c r="AQ15" s="17"/>
-      <c r="AR15" s="17"/>
-      <c r="AS15" s="4"/>
-      <c r="AT15" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU15" s="17"/>
-      <c r="AV15" s="17"/>
-      <c r="AW15" s="17"/>
-      <c r="AX15" s="17"/>
-      <c r="AY15" s="17"/>
-    </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="4"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
-      <c r="AK16" s="17"/>
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="17"/>
-      <c r="AN16" s="17"/>
-      <c r="AO16" s="17"/>
-      <c r="AP16" s="17"/>
-      <c r="AQ16" s="17"/>
-      <c r="AR16" s="17"/>
-      <c r="AS16" s="17"/>
-      <c r="AT16" s="17"/>
-      <c r="AU16" s="17"/>
-      <c r="AV16" s="17"/>
-      <c r="AW16" s="17"/>
-      <c r="AX16" s="17"/>
-      <c r="AY16" s="17"/>
-    </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="4"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="17"/>
-      <c r="AN17" s="17"/>
-      <c r="AO17" s="17"/>
-      <c r="AP17" s="17"/>
-      <c r="AQ17" s="17"/>
-      <c r="AR17" s="17"/>
-      <c r="AS17" s="17"/>
-      <c r="AT17" s="17"/>
-      <c r="AU17" s="17"/>
-      <c r="AV17" s="17"/>
-      <c r="AW17" s="17"/>
-      <c r="AX17" s="17"/>
-      <c r="AY17" s="17"/>
-    </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="17"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
-      <c r="AK18" s="17"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="17"/>
-      <c r="AN18" s="17"/>
-      <c r="AO18" s="17"/>
-      <c r="AP18" s="17"/>
-      <c r="AQ18" s="17"/>
-      <c r="AR18" s="17"/>
-      <c r="AS18" s="17"/>
-      <c r="AT18" s="17"/>
-      <c r="AU18" s="17"/>
-      <c r="AV18" s="17"/>
-      <c r="AW18" s="17"/>
-      <c r="AX18" s="17"/>
-      <c r="AY18" s="17"/>
-    </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
+      <c r="C11" s="16">
+        <v>0.99811360000000005</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.99565099999999995</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.99987530000000002</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.99714179999999997</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0.9994402</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0.99884059999999997</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0.99936009999999997</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0.99925010000000003</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0.99549270000000001</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0.99867640000000002</v>
+      </c>
+      <c r="M11" s="16">
+        <v>0.99753849999999999</v>
+      </c>
+      <c r="N11" s="16">
+        <v>0.99909890000000001</v>
+      </c>
+      <c r="O11" s="16">
+        <v>0.99794720000000003</v>
+      </c>
+      <c r="P11" s="16">
+        <v>0.99917100000000003</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>0.99989459999999997</v>
+      </c>
+      <c r="R11" s="16">
+        <v>0.99968780000000002</v>
+      </c>
+      <c r="S11" s="16">
+        <v>0.99937319999999996</v>
+      </c>
+      <c r="T11" s="16">
+        <v>0.99824520000000005</v>
+      </c>
+      <c r="U11" s="16">
+        <v>0.99861719999999998</v>
+      </c>
+      <c r="V11" s="16">
+        <v>0.99816190000000005</v>
+      </c>
+      <c r="W11" s="16">
+        <v>0.99986160000000002</v>
+      </c>
+      <c r="X11" s="16">
+        <v>0.9987819</v>
+      </c>
+      <c r="Y11" s="16">
+        <v>0.99879050000000003</v>
+      </c>
+      <c r="Z11" s="16">
+        <v>0.99974620000000003</v>
+      </c>
+      <c r="AA11" s="16">
+        <v>0.99702460000000004</v>
+      </c>
+      <c r="AB11" s="16">
+        <v>0.9996602</v>
+      </c>
+      <c r="AC11" s="16">
+        <v>0.99880599999999997</v>
+      </c>
+      <c r="AD11" s="16">
+        <v>0.99966359999999999</v>
+      </c>
+      <c r="AE11" s="12"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+    </row>
+    <row r="12" spans="2:49" ht="20" x14ac:dyDescent="0.3">
+      <c r="B12" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="16">
+        <v>1.19893E-2</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.67649760000000003</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.61674490000000004</v>
+      </c>
+      <c r="F12" s="16">
+        <v>2.5995399999999998E-2</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0.54254970000000002</v>
+      </c>
+      <c r="H12" s="16">
+        <v>2.9563800000000001E-2</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0.36969809999999997</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0.73705189999999998</v>
+      </c>
+      <c r="K12" s="16">
+        <v>2.1369999999999999E-4</v>
+      </c>
+      <c r="L12" s="16">
+        <v>0.1722834</v>
+      </c>
+      <c r="M12" s="16">
+        <v>0.14738979999999999</v>
+      </c>
+      <c r="N12" s="16">
+        <v>0.27189000000000002</v>
+      </c>
+      <c r="O12" s="16">
+        <v>0.36338609999999999</v>
+      </c>
+      <c r="P12" s="16">
+        <v>4.0029299999999997E-2</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>0.23827139999999999</v>
+      </c>
+      <c r="R12" s="16">
+        <v>2.2920000000000002E-3</v>
+      </c>
+      <c r="S12" s="16">
+        <v>0.62305580000000005</v>
+      </c>
+      <c r="T12" s="16">
+        <v>0.33754079999999997</v>
+      </c>
+      <c r="U12" s="16">
+        <v>0.32701599999999997</v>
+      </c>
+      <c r="V12" s="16">
+        <v>3.9381899999999997E-2</v>
+      </c>
+      <c r="W12" s="16">
+        <v>4.6376399999999998E-2</v>
+      </c>
+      <c r="X12" s="16">
+        <v>9.9930500000000005E-2</v>
+      </c>
+      <c r="Y12" s="16">
+        <v>0.72933340000000002</v>
+      </c>
+      <c r="Z12" s="16">
+        <v>0.96677259999999998</v>
+      </c>
+      <c r="AA12" s="16">
+        <v>0.22179570000000001</v>
+      </c>
+      <c r="AB12" s="16">
+        <v>8.8242000000000008E-3</v>
+      </c>
+      <c r="AC12" s="16">
+        <v>3.9316000000000004E-3</v>
+      </c>
+      <c r="AD12" s="16">
+        <v>0.70087529999999998</v>
+      </c>
+      <c r="AE12" s="12"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+    </row>
+    <row r="13" spans="2:49" ht="20" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
+    </row>
+    <row r="14" spans="2:49" ht="20" x14ac:dyDescent="0.3">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
+      <c r="AV14" s="13"/>
+      <c r="AW14" s="13"/>
+    </row>
+    <row r="15" spans="2:49" x14ac:dyDescent="0.2">
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+    </row>
+    <row r="16" spans="2:49" x14ac:dyDescent="0.2">
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+    </row>
+    <row r="17" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+    </row>
+    <row r="18" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+    </row>
+    <row r="19" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+    </row>
+    <row r="20" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C5:AD12">
+    <cfRule type="cellIs" dxfId="35" priority="25" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="26" operator="lessThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="27" operator="lessThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="28" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Case Study 2/Significant Table.xlsx
+++ b/Case Study 2/Significant Table.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="14_{CA3B5123-ED1E-5440-8546-D5D82B1A5E4E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{27BABDC8-95E6-4834-B961-269F4E578523}"/>
+    <workbookView xWindow="280" yWindow="3060" windowWidth="30420" windowHeight="18240" activeTab="1" xr2:uid="{27BABDC8-95E6-4834-B961-269F4E578523}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>

--- a/Case Study 2/Significant Table.xlsx
+++ b/Case Study 2/Significant Table.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="14_{CA3B5123-ED1E-5440-8546-D5D82B1A5E4E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="3060" windowWidth="30420" windowHeight="18240" activeTab="1" xr2:uid="{27BABDC8-95E6-4834-B961-269F4E578523}"/>
+    <workbookView xWindow="260" yWindow="3060" windowWidth="30420" windowHeight="18240" activeTab="1" xr2:uid="{27BABDC8-95E6-4834-B961-269F4E578523}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -2380,7 +2380,7 @@
   <dimension ref="A1:AW20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B5" sqref="B5:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
